--- a/Excel Data/COAD_AccCreation.xlsx
+++ b/Excel Data/COAD_AccCreation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Cid</t>
   </si>
@@ -59,12 +59,6 @@
     <t>abc</t>
   </si>
   <si>
-    <t>9-00000000</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>Jholder</t>
   </si>
   <si>
@@ -74,7 +68,37 @@
     <t>testing</t>
   </si>
   <si>
-    <t>TxnAttempts</t>
+    <t>ExpectedNumOfTxn</t>
+  </si>
+  <si>
+    <t>AC Screen list</t>
+  </si>
+  <si>
+    <t>8-02-200000</t>
+  </si>
+  <si>
+    <t>RelationCode</t>
+  </si>
+  <si>
+    <t>8-02</t>
+  </si>
+  <si>
+    <t>Below 1M</t>
+  </si>
+  <si>
+    <t>TurnoverM</t>
+  </si>
+  <si>
+    <t>TurnoverA</t>
+  </si>
+  <si>
+    <t>1M to 5M</t>
+  </si>
+  <si>
+    <t>debitTxnNum</t>
+  </si>
+  <si>
+    <t>TurnoverDebitMonth</t>
   </si>
 </sst>
 </file>
@@ -112,7 +136,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,15 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,16 +454,34 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
-        <v>16</v>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10001231</v>
       </c>
@@ -453,28 +495,46 @@
         <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>44931</v>
+        <v>20230106</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>16206304</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L2">
         <v>20</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Data/COAD_AccCreation.xlsx
+++ b/Excel Data/COAD_AccCreation.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>Cid</t>
   </si>
@@ -99,6 +100,21 @@
   </si>
   <si>
     <t>TurnoverDebitMonth</t>
+  </si>
+  <si>
+    <t>6-012</t>
+  </si>
+  <si>
+    <t>3-01</t>
+  </si>
+  <si>
+    <t>3-01-01</t>
+  </si>
+  <si>
+    <t>sbpSubSegment</t>
+  </si>
+  <si>
+    <t>3-01-01-0100</t>
   </si>
 </sst>
 </file>
@@ -419,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,4 +557,137 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11241908</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20230106</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2">
+        <v>16206304</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2">
+        <v>20</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel Data/COAD_AccCreation.xlsx
+++ b/Excel Data/COAD_AccCreation.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="LCY current" sheetId="1" r:id="rId1"/>
+    <sheet name="LCY Saving" sheetId="2" r:id="rId2"/>
+    <sheet name="FCY current" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>Cid</t>
   </si>
@@ -115,19 +116,49 @@
   </si>
   <si>
     <t>3-01-01-0100</t>
+  </si>
+  <si>
+    <t>1-003</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>20230107</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>3-14</t>
+  </si>
+  <si>
+    <t>3-14-030000</t>
+  </si>
+  <si>
+    <t>BioVersion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,9 +181,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +468,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -690,4 +722,144 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>11699192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2">
+        <v>16206304</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel Data/COAD_AccCreation.xlsx
+++ b/Excel Data/COAD_AccCreation.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LCY current" sheetId="1" r:id="rId1"/>
     <sheet name="LCY Saving" sheetId="2" r:id="rId2"/>
     <sheet name="FCY current" sheetId="3" r:id="rId3"/>
+    <sheet name="FCY Saving" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
   <si>
     <t>Cid</t>
   </si>
@@ -140,6 +141,15 @@
   </si>
   <si>
     <t>BioVersion</t>
+  </si>
+  <si>
+    <t>6-003</t>
+  </si>
+  <si>
+    <t>hasan</t>
+  </si>
+  <si>
+    <t>aftab</t>
   </si>
 </sst>
 </file>
@@ -728,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,4 +872,143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>16806732</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2">
+        <v>16206304</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel Data/COAD_AccCreation.xlsx
+++ b/Excel Data/COAD_AccCreation.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LCY current" sheetId="1" r:id="rId1"/>
     <sheet name="LCY Saving" sheetId="2" r:id="rId2"/>
     <sheet name="FCY current" sheetId="3" r:id="rId3"/>
-    <sheet name="FCY Saving" sheetId="4" r:id="rId4"/>
+    <sheet name="LCSavingAccountInputter" sheetId="4" r:id="rId4"/>
+    <sheet name="LCCurrentInputter" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
   <si>
     <t>Cid</t>
   </si>
@@ -143,13 +144,13 @@
     <t>BioVersion</t>
   </si>
   <si>
-    <t>6-003</t>
-  </si>
-  <si>
-    <t>hasan</t>
-  </si>
-  <si>
-    <t>aftab</t>
+    <t>Purpose of Bank Account</t>
+  </si>
+  <si>
+    <t>for property purpose use</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -739,7 +740,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="A1:XFD1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,136 +877,65 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>16806732</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>1007758835</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1007414740</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2">
-        <v>16206304</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2">
-        <v>30</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>6</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2">
-        <v>30</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Data/COAD_AccCreation.xlsx
+++ b/Excel Data/COAD_AccCreation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LCY current" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="FCY current" sheetId="3" r:id="rId3"/>
     <sheet name="LCSavingAccountInputter" sheetId="4" r:id="rId4"/>
     <sheet name="LCCurrentInputter" sheetId="5" r:id="rId5"/>
+    <sheet name="IbgFcyCurrent" sheetId="6" r:id="rId6"/>
+    <sheet name="IbgFcySaving" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="41">
   <si>
     <t>Cid</t>
   </si>
@@ -607,7 +610,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="P15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +743,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -941,4 +944,294 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>11699192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2">
+        <v>16206304</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>11699192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2">
+        <v>16206304</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel Data/COAD_AccCreation.xlsx
+++ b/Excel Data/COAD_AccCreation.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LCY current" sheetId="1" r:id="rId1"/>
     <sheet name="LCY Saving" sheetId="2" r:id="rId2"/>
     <sheet name="FCY current" sheetId="3" r:id="rId3"/>
-    <sheet name="LCSavingAccountInputter" sheetId="4" r:id="rId4"/>
-    <sheet name="LCCurrentInputter" sheetId="5" r:id="rId5"/>
+    <sheet name="FCY Saving" sheetId="6" r:id="rId4"/>
+    <sheet name="LCSavingAccountInputter" sheetId="4" r:id="rId5"/>
+    <sheet name="LCCurrentInputter" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="44">
   <si>
     <t>Cid</t>
   </si>
@@ -151,13 +152,22 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>T.C (Azure)</t>
+  </si>
+  <si>
+    <t>T.C (Desc.)</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +181,14 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -188,14 +206,180 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,124 +660,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="A1:XFD1048576"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="S1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>10001231</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="14">
         <v>20230106</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>16206304</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="4">
         <v>20</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="4">
         <v>2</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="4">
         <v>20</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="S2" s="3">
+        <v>119861</v>
       </c>
     </row>
   </sheetData>
@@ -604,131 +800,145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>11241908</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="15">
         <v>20230106</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="8">
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="8">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="8">
         <v>16206304</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="8">
         <v>20</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="8">
         <v>2</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="8">
         <v>6</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="8">
         <v>20</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="T2" s="9">
+        <v>119862</v>
+      </c>
+      <c r="U2" s="8"/>
+      <c r="V2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -737,137 +947,151 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="19" t="s">
         <v>24</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:23" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="17">
         <v>11699192</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="12">
         <v>4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="12">
         <v>3</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="12">
         <v>16206304</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="12">
         <v>30</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="12">
         <v>2</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="12">
         <v>6</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="12">
         <v>30</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="U2" s="9">
+        <v>119863</v>
+      </c>
+      <c r="V2" s="8"/>
+      <c r="W2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -877,32 +1101,111 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
+    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2">
-        <v>1007758835</v>
-      </c>
+    <row r="2" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="17"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="9">
+        <v>119864</v>
+      </c>
+      <c r="V2" s="8"/>
+      <c r="W2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -911,10 +1214,58 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1007758835</v>
+      </c>
+      <c r="C2" s="9">
+        <v>118605</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,23 +1273,38 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>1007414740</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="C2" s="9">
+        <v>118605</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel Data/COAD_AccCreation.xlsx
+++ b/Excel Data/COAD_AccCreation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti6\IdeaProjects\Retail Ops\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LCY current" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
   <si>
     <t>Cid</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>sbpSegment</t>
-  </si>
-  <si>
-    <t>1-011</t>
   </si>
   <si>
     <t>abc</t>
@@ -663,10 +660,33 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
@@ -697,54 +717,54 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="L1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="N1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="Q1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="S1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>10001231</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="14">
         <v>20230106</v>
@@ -756,16 +776,16 @@
         <v>8</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="4">
         <v>16206304</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" s="4">
         <v>20</v>
@@ -777,16 +797,16 @@
         <v>6</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="4">
         <v>20</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S2" s="3">
         <v>119861</v>
@@ -802,11 +822,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
@@ -837,43 +881,43 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="T1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -881,13 +925,13 @@
         <v>11241908</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="15">
         <v>20230106</v>
@@ -899,19 +943,19 @@
         <v>3</v>
       </c>
       <c r="H2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="J2" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="8">
         <v>16206304</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" s="8">
         <v>20</v>
@@ -923,16 +967,16 @@
         <v>6</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R2" s="8">
         <v>20</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T2" s="9">
         <v>119862</v>
@@ -949,7 +993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
@@ -963,10 +1007,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>2</v>
@@ -990,40 +1034,40 @@
         <v>8</v>
       </c>
       <c r="L1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="P1" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="S1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="U1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -1031,22 +1075,22 @@
         <v>11699192</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="12">
         <v>1</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="H2" s="12">
         <v>4</v>
@@ -1055,16 +1099,16 @@
         <v>3</v>
       </c>
       <c r="J2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="L2" s="12">
         <v>16206304</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N2" s="12">
         <v>30</v>
@@ -1076,16 +1120,16 @@
         <v>6</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S2" s="12">
         <v>30</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U2" s="9">
         <v>119863</v>
@@ -1117,10 +1161,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>2</v>
@@ -1144,40 +1188,40 @@
         <v>8</v>
       </c>
       <c r="L1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="P1" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="S1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="U1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -1227,24 +1271,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="8">
         <v>1007758835</v>
@@ -1275,19 +1319,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1295,7 +1339,7 @@
         <v>1007414740</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="9">
         <v>118605</v>

--- a/Excel Data/COAD_AccCreation.xlsx
+++ b/Excel Data/COAD_AccCreation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LCY current" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="42">
   <si>
     <t>Cid</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>TurnoverDebitMonth</t>
-  </si>
-  <si>
-    <t>6-012</t>
   </si>
   <si>
     <t>3-01</t>
@@ -744,13 +741,13 @@
         <v>23</v>
       </c>
       <c r="S1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -822,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,7 +878,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -911,21 +908,21 @@
         <v>23</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>11241908</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>24</v>
+      <c r="A2" s="4">
+        <v>10001231</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1001</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>9</v>
@@ -943,13 +940,13 @@
         <v>3</v>
       </c>
       <c r="H2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>26</v>
-      </c>
       <c r="J2" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="8">
         <v>16206304</v>
@@ -994,10 +991,35 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
@@ -1007,10 +1029,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>2</v>
@@ -1061,13 +1083,13 @@
         <v>23</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -1075,22 +1097,22 @@
         <v>11699192</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="12">
         <v>1</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="H2" s="12">
         <v>4</v>
@@ -1099,10 +1121,10 @@
         <v>3</v>
       </c>
       <c r="J2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="L2" s="12">
         <v>16206304</v>
@@ -1161,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>2</v>
@@ -1215,13 +1237,13 @@
         <v>23</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -1261,34 +1283,38 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="8">
         <v>1007758835</v>
@@ -1308,30 +1334,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1339,7 +1369,7 @@
         <v>1007414740</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="9">
         <v>118605</v>

--- a/Excel Data/COAD_AccCreation.xlsx
+++ b/Excel Data/COAD_AccCreation.xlsx
@@ -1170,10 +1170,35 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
@@ -1283,7 +1308,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1360,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Data/COAD_AccCreation.xlsx
+++ b/Excel Data/COAD_AccCreation.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="LCY current" sheetId="1" r:id="rId1"/>
-    <sheet name="LCY Saving" sheetId="2" r:id="rId2"/>
+    <sheet name="LCY Saving" sheetId="2" r:id="rId1"/>
+    <sheet name="LCY current" sheetId="1" r:id="rId2"/>
     <sheet name="FCY current" sheetId="3" r:id="rId3"/>
     <sheet name="FCY Saving" sheetId="6" r:id="rId4"/>
     <sheet name="LCSavingAccountInputter" sheetId="4" r:id="rId5"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="41">
   <si>
     <t>Cid</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>3-01-01-0100</t>
-  </si>
-  <si>
-    <t>1-003</t>
   </si>
   <si>
     <t>temp</t>
@@ -161,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +174,13 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -349,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -374,6 +378,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,169 +666,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>10001231</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="14">
-        <v>20230106</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4">
-        <v>8</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4">
-        <v>16206304</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="4">
-        <v>20</v>
-      </c>
-      <c r="M2" s="4">
-        <v>2</v>
-      </c>
-      <c r="N2" s="4">
-        <v>6</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>20</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="3">
-        <v>119861</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -908,13 +757,13 @@
         <v>23</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -986,9 +835,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -996,168 +845,330 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>10001231</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="14">
+        <v>20230106</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4">
+        <v>16206304</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4">
+        <v>2</v>
+      </c>
+      <c r="N2" s="4">
+        <v>6</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>20</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="3">
+        <v>119861</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" style="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="7" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="21">
+        <v>11699192</v>
+      </c>
+      <c r="B2" s="20">
+        <v>1003</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="20">
+        <v>4</v>
+      </c>
+      <c r="I2" s="20">
+        <v>3</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="20">
+        <v>16206304</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="20">
+        <v>30</v>
+      </c>
+      <c r="O2" s="20">
         <v>2</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="19" t="s">
+      <c r="P2" s="20">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17">
-        <v>11699192</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="12">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="Q2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="20">
         <v>30</v>
       </c>
-      <c r="H2" s="12">
-        <v>4</v>
-      </c>
-      <c r="I2" s="12">
-        <v>3</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="12">
-        <v>16206304</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="12">
-        <v>30</v>
-      </c>
-      <c r="O2" s="12">
-        <v>2</v>
-      </c>
-      <c r="P2" s="12">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="12" t="s">
+      <c r="T2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="12">
-        <v>30</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="9">
+      <c r="U2" s="23">
         <v>119863</v>
       </c>
-      <c r="V2" s="8"/>
-      <c r="W2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1208,10 +1219,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>2</v>
@@ -1262,13 +1273,13 @@
         <v>23</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -1322,24 +1333,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="8">
         <v>1007758835</v>
@@ -1359,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,19 +1385,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1394,7 +1405,7 @@
         <v>1007414740</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="9">
         <v>118605</v>

--- a/Excel Data/COAD_AccCreation.xlsx
+++ b/Excel Data/COAD_AccCreation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LCY Saving" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
   <si>
     <t>Cid</t>
   </si>
@@ -158,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +187,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -196,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -329,31 +336,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -370,12 +357,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -386,6 +370,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,7 +683,7 @@
     <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -779,7 +764,7 @@
       <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="13">
         <v>20230106</v>
       </c>
       <c r="F2" s="8">
@@ -788,13 +773,13 @@
       <c r="G2" s="8">
         <v>3</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="13" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="8">
@@ -946,7 +931,7 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <v>20230106</v>
       </c>
       <c r="F2" s="4">
@@ -955,7 +940,7 @@
       <c r="G2" s="4">
         <v>8</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -1002,171 +987,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" style="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" style="20" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="7" style="20"/>
+    <col min="1" max="1" width="7.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" style="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="7" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:23" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21">
+      <c r="A2" s="18">
         <v>11699192</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>1003</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>1</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="17">
         <v>4</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="17">
         <v>3</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="17">
         <v>16206304</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="17">
         <v>30</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="17">
         <v>2</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="17">
         <v>6</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="20">
+      <c r="S2" s="17">
         <v>30</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="23">
+      <c r="U2" s="20">
         <v>119863</v>
       </c>
     </row>
@@ -1181,12 +1166,12 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -1212,64 +1197,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="16" t="s">
         <v>23</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -1282,27 +1267,67 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
+        <v>10007006</v>
+      </c>
+      <c r="B2" s="17">
+        <v>6003</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="17">
+        <v>4</v>
+      </c>
+      <c r="I2" s="17">
+        <v>3</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="17">
+        <v>16206304</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="17">
+        <v>30</v>
+      </c>
+      <c r="O2" s="17">
+        <v>2</v>
+      </c>
+      <c r="P2" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="17">
+        <v>30</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="U2" s="9">
         <v>119864</v>
       </c>
@@ -1318,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1378,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="8">
-        <v>1007758835</v>
+        <v>1008617134</v>
       </c>
       <c r="C2" s="9">
         <v>118605</v>
@@ -1371,7 +1396,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,7 +1427,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>1007414740</v>
+        <v>1008617134</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>36</v>

--- a/Excel Data/COAD_AccCreation.xlsx
+++ b/Excel Data/COAD_AccCreation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LCY Saving" sheetId="2" r:id="rId1"/>
@@ -158,19 +158,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -340,37 +334,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,13 +980,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="17" bestFit="1" customWidth="1"/>
@@ -1019,79 +1012,79 @@
     <col min="24" max="16384" width="7" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:23" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
         <v>11699192</v>
       </c>
       <c r="B2" s="17">
@@ -1109,7 +1102,7 @@
       <c r="F2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="17">
@@ -1118,7 +1111,7 @@
       <c r="I2" s="17">
         <v>3</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="17" t="s">
@@ -1151,7 +1144,7 @@
       <c r="T2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="20">
+      <c r="U2" s="19">
         <v>119863</v>
       </c>
     </row>
@@ -1268,7 +1261,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>10007006</v>
       </c>
       <c r="B2" s="17">
@@ -1286,7 +1279,7 @@
       <c r="F2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="17">
@@ -1295,7 +1288,7 @@
       <c r="I2" s="17">
         <v>3</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="17" t="s">
@@ -1343,7 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Excel Data/COAD_AccCreation.xlsx
+++ b/Excel Data/COAD_AccCreation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti6\IdeaProjects\Retail Ops\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LCY Saving" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="88">
   <si>
     <t>Cid</t>
   </si>
@@ -152,13 +152,154 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>SBP.SSEGMENT.ID</t>
+  </si>
+  <si>
+    <t>SBP.CATEGORY.ID</t>
+  </si>
+  <si>
+    <t>SBP.SCAT.ID</t>
+  </si>
+  <si>
+    <t>OTHER.OFFICER:1</t>
+  </si>
+  <si>
+    <t>ACCT.OPR.INST.2:1</t>
+  </si>
+  <si>
+    <t>JOINT.NOTES:1:1</t>
+  </si>
+  <si>
+    <t>EX.TOVER.DR.OTH</t>
+  </si>
+  <si>
+    <t>ATOGTM</t>
+  </si>
+  <si>
+    <t>EXP.MONTH.TOVER</t>
+  </si>
+  <si>
+    <t>SFUNDOTH</t>
+  </si>
+  <si>
+    <t>MON.TOVER.CORP</t>
+  </si>
+  <si>
+    <t>TOT.FIN.AMT</t>
+  </si>
+  <si>
+    <t>MANDATEE.NAME:1</t>
+  </si>
+  <si>
+    <t>KIN.ID.TYPE:1</t>
+  </si>
+  <si>
+    <t>MANDATEE.NIC:1</t>
+  </si>
+  <si>
+    <t>MAND.OCCUPATION:1</t>
+  </si>
+  <si>
+    <t>MAND.RELATION:1</t>
+  </si>
+  <si>
+    <t>INCOME.SOURCE:1</t>
+  </si>
+  <si>
+    <t>MONTHLY.INCOME:1</t>
+  </si>
+  <si>
+    <t>FATH.HUS.NAME:1</t>
+  </si>
+  <si>
+    <t>CUS.NATN:1</t>
+  </si>
+  <si>
+    <t>CUS.DOB:1</t>
+  </si>
+  <si>
+    <t>CUS.BIRTH.PLACE:1</t>
+  </si>
+  <si>
+    <t>MAN.VAL.DATE:1</t>
+  </si>
+  <si>
+    <t>FAT.MANDT.ADDR:1</t>
+  </si>
+  <si>
+    <t>POSTING.RESTRICT:1</t>
+  </si>
+  <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>BAF.PRM.CRDNAME</t>
+  </si>
+  <si>
+    <t>BAF.PRM.PEN</t>
+  </si>
+  <si>
+    <t>BAF.PRM.DATETME</t>
+  </si>
+  <si>
+    <t>ACC.OTH.FLAG:1</t>
+  </si>
+  <si>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>ACCOUNT.TITLE.1:1</t>
+  </si>
+  <si>
+    <t>ACCOUNT.TITLE.2:1</t>
+  </si>
+  <si>
+    <t>AOR</t>
+  </si>
+  <si>
+    <t>SBP.COMPANY</t>
+  </si>
+  <si>
+    <t>SBP.SECTOR.ID</t>
+  </si>
+  <si>
+    <t>SBP.SSECTOR.ID</t>
+  </si>
+  <si>
+    <t>SBP.SEGMENT.ID</t>
+  </si>
+  <si>
+    <t>ACCOUNT.OFFICER</t>
+  </si>
+  <si>
+    <t>JOINT.HOLDER:1</t>
+  </si>
+  <si>
+    <t>RELATION.CODE:1</t>
+  </si>
+  <si>
+    <t>KYC.NO.TRANS</t>
+  </si>
+  <si>
+    <t>NO.TRANS.DR</t>
+  </si>
+  <si>
+    <t>MONTH.TOVER.RG</t>
+  </si>
+  <si>
+    <t>SOURCEFUNDS</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +329,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -197,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -330,11 +479,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -364,6 +524,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,20 +825,22 @@
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="9.5703125" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="44" width="26.140625" customWidth="1"/>
+    <col min="45" max="45" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -711,40 +875,115 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>10001231</v>
       </c>
@@ -778,35 +1017,60 @@
       <c r="K2" s="8">
         <v>16206304</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="8">
+      <c r="S2" s="8">
         <v>20</v>
       </c>
-      <c r="N2" s="8">
+      <c r="T2" s="8">
         <v>2</v>
       </c>
-      <c r="O2" s="8">
+      <c r="U2" s="8">
         <v>6</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="8">
+      <c r="X2" s="8">
         <v>20</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="9">
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="9">
         <v>119862</v>
       </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="10"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -815,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,20 +1097,22 @@
     <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="26.140625" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -877,41 +1143,108 @@
       <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>10001231</v>
       </c>
@@ -942,31 +1275,32 @@
       <c r="J2" s="4">
         <v>16206304</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>20</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>6</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="R2" s="4">
         <v>20</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="3">
+      <c r="Z2" s="3"/>
+      <c r="AP2" s="3">
         <v>119861</v>
       </c>
     </row>
@@ -978,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:AX20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,21 +1332,23 @@
     <col min="10" max="10" width="16.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" style="17" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="7" style="17"/>
+    <col min="13" max="18" width="9.5703125" style="17" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="26.140625" style="17" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7" style="17" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="7" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1050,40 +1386,121 @@
         <v>10</v>
       </c>
       <c r="M1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="V1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="W1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="X1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="Y1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="Z1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="AA1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="AW1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="AX1" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>11699192</v>
       </c>
@@ -1120,33 +1537,47 @@
       <c r="L2" s="17">
         <v>16206304</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="S2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="17">
+      <c r="T2" s="17">
         <v>30</v>
       </c>
-      <c r="O2" s="17">
+      <c r="U2" s="17">
         <v>2</v>
       </c>
-      <c r="P2" s="17">
+      <c r="V2" s="17">
         <v>6</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="W2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="X2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="17">
+      <c r="Y2" s="17">
         <v>30</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="Z2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="19">
+      <c r="AV2" s="19">
         <v>119863</v>
       </c>
+    </row>
+    <row r="19" spans="24:32" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+    </row>
+    <row r="20" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X20" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1156,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:AX2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,20 +1607,21 @@
     <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="9.5703125" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1227,40 +1659,121 @@
         <v>10</v>
       </c>
       <c r="M1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>10007006</v>
       </c>
@@ -1297,47 +1810,75 @@
       <c r="L2" s="17">
         <v>16206304</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="17">
+      <c r="T2" s="17">
         <v>30</v>
       </c>
-      <c r="O2" s="17">
+      <c r="U2" s="17">
         <v>2</v>
       </c>
-      <c r="P2" s="17">
+      <c r="V2" s="17">
         <v>6</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="W2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="X2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="17">
+      <c r="Y2" s="17">
         <v>30</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="Z2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="9">
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="9">
         <v>119864</v>
       </c>
-      <c r="V2" s="8"/>
-      <c r="W2" s="10"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection sqref="A1:AS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,37 +1888,170 @@
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="T1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ1" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR1" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1008617134</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="8">
+      <c r="AT2" s="13">
         <v>1008617134</v>
       </c>
-      <c r="C2" s="9">
+      <c r="AU2" s="9">
         <v>118605</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="10"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1386,50 +2060,180 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="U1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR1" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS1" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1008617134</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="9">
+      <c r="AU2" s="9">
         <v>118605</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="10"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
